--- a/ontwikkeling/verkeersborden/Objectentabel-VW-VerkeersmaatregelenWeg 5.1.xlsx
+++ b/ontwikkeling/verkeersborden/Objectentabel-VW-VerkeersmaatregelenWeg 5.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmhelmons-my.sharepoint.com/personal/cm_helmons_hci-infra_nl/Documents/Backup Rotterdam/NLCS/Ministerie I&amp;W/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\ontwikkeling\verkeersborden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6B5A566-7FE6-4FD1-A036-E92B91009FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6490BE0B-FEDD-4423-A34D-37F461507F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5.02-Objectentabel-VW-Verkeersm" sheetId="1" r:id="rId1"/>
@@ -1079,16 +1079,16 @@
   <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="57.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
